--- a/scripts/Input_data/coef_migrations.xlsx
+++ b/scripts/Input_data/coef_migrations.xlsx
@@ -888,7 +888,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -899,6 +899,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor rgb="FFFFFF00"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF729FCF"/>
+        <bgColor rgb="FF969696"/>
       </patternFill>
     </fill>
   </fills>
@@ -1827,7 +1833,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="301">
+  <cellXfs count="303">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2001,11 +2007,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="8" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="16" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2061,7 +2067,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="13" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2157,7 +2163,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="26" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -2173,7 +2179,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="18" fillId="0" borderId="26" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2189,11 +2195,11 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="168" fontId="4" fillId="0" borderId="26" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="26" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2205,7 +2211,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="26" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="6" fillId="0" borderId="30" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2217,7 +2223,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="31" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2277,7 +2283,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="18" fillId="0" borderId="29" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2325,7 +2331,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="18" fillId="0" borderId="31" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -2333,7 +2339,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="166" fontId="4" fillId="0" borderId="31" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="4" shrinkToFit="false"/>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="6" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
@@ -3028,6 +3034,14 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="16" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="2" borderId="12" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -3061,7 +3075,7 @@
       <rgbColor rgb="FF008080"/>
       <rgbColor rgb="FFC0C0C0"/>
       <rgbColor rgb="FF808080"/>
-      <rgbColor rgb="FF9999FF"/>
+      <rgbColor rgb="FF729FCF"/>
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FFFFFFCC"/>
       <rgbColor rgb="FFCCFFFF"/>
@@ -7191,7 +7205,7 @@
       <selection pane="topLeft" activeCell="J49" activeCellId="0" sqref="J49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="127" width="57.93"/>
@@ -10407,7 +10421,7 @@
       <selection pane="topLeft" activeCell="C33" activeCellId="0" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="127" width="55.5"/>
@@ -14050,7 +14064,7 @@
       <selection pane="topLeft" activeCell="J77" activeCellId="0" sqref="J77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="127" width="48.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="14.54"/>
@@ -18084,7 +18098,7 @@
       <selection pane="topLeft" activeCell="J76" activeCellId="0" sqref="J76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="127" width="48.08"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="14.54"/>
@@ -21978,11 +21992,11 @@
   </sheetPr>
   <dimension ref="A1:S99"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="T3" activeCellId="0" sqref="T3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="I1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="Q31" activeCellId="0" sqref="Q31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.31"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="41.17"/>
@@ -23783,62 +23797,62 @@
         <v>-0.000116724107214164</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B31" s="45" t="s">
+    <row r="31" s="300" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B31" s="301" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="0" t="n">
+      <c r="C31" s="300" t="n">
         <v>0.000782873267156521</v>
       </c>
-      <c r="D31" s="0" t="n">
+      <c r="D31" s="300" t="n">
         <v>0.00268987665052592</v>
       </c>
-      <c r="E31" s="0" t="n">
+      <c r="E31" s="300" t="n">
         <v>0.00518989860676559</v>
       </c>
-      <c r="F31" s="0" t="n">
+      <c r="F31" s="300" t="n">
         <v>0.0122209664950576</v>
       </c>
-      <c r="G31" s="0" t="n">
+      <c r="G31" s="300" t="n">
         <v>0.00855561657886327</v>
       </c>
-      <c r="H31" s="0" t="n">
+      <c r="H31" s="300" t="n">
         <v>0.00486604554586272</v>
       </c>
-      <c r="I31" s="0" t="n">
+      <c r="I31" s="300" t="n">
         <v>0.0102877234388074</v>
       </c>
-      <c r="J31" s="0" t="n">
+      <c r="J31" s="300" t="n">
         <v>0.0198920047732697</v>
       </c>
-      <c r="K31" s="0" t="n">
+      <c r="K31" s="300" t="n">
         <v>0.0149583533455718</v>
       </c>
-      <c r="L31" s="0" t="n">
+      <c r="L31" s="300" t="n">
         <v>0.0119673164407317</v>
       </c>
-      <c r="M31" s="0" t="n">
+      <c r="M31" s="300" t="n">
         <v>0.00452756611921195</v>
       </c>
-      <c r="N31" s="0" t="n">
+      <c r="N31" s="300" t="n">
         <v>0.00681907367628912</v>
       </c>
-      <c r="O31" s="0" t="n">
+      <c r="O31" s="300" t="n">
         <v>0.00723744742556283</v>
       </c>
-      <c r="P31" s="0" t="n">
+      <c r="P31" s="300" t="n">
         <f aca="false">MIN(C31:O31)</f>
         <v>0.000782873267156521</v>
       </c>
-      <c r="Q31" s="0" t="n">
+      <c r="Q31" s="300" t="n">
         <f aca="false">MAX(C31:O31)</f>
         <v>0.0198920047732697</v>
       </c>
-      <c r="R31" s="0" t="n">
+      <c r="R31" s="300" t="n">
         <f aca="false">AVERAGE(C31:O31)</f>
         <v>0.00846113556643663</v>
       </c>
-      <c r="S31" s="0" t="n">
+      <c r="S31" s="300" t="n">
         <f aca="false">MEDIAN(C31:O31)</f>
         <v>0.00723744742556283</v>
       </c>
@@ -23964,7 +23978,7 @@
       </c>
     </row>
     <row r="34" s="299" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B34" s="300" t="s">
+      <c r="B34" s="302" t="s">
         <v>56</v>
       </c>
       <c r="C34" s="299" t="n">
@@ -24243,7 +24257,7 @@
       </c>
     </row>
     <row r="39" s="299" customFormat="true" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B39" s="300" t="s">
+      <c r="B39" s="302" t="s">
         <v>61</v>
       </c>
       <c r="C39" s="299" t="n">
@@ -35510,7 +35524,7 @@
       <selection pane="topLeft" activeCell="I1" activeCellId="0" sqref="I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="127" width="63.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="15.68"/>
@@ -38953,7 +38967,7 @@
       <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="127" width="63.63"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="42" width="15.68"/>
@@ -42405,7 +42419,7 @@
       <selection pane="topLeft" activeCell="J46" activeCellId="0" sqref="J46"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="127" width="63.63"/>
@@ -45863,7 +45877,7 @@
       <selection pane="topLeft" activeCell="K48" activeCellId="0" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="2.19"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="127" width="63.59"/>
@@ -49314,7 +49328,7 @@
       <selection pane="topLeft" activeCell="J50" activeCellId="0" sqref="J50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="127" width="57.93"/>
@@ -53023,7 +53037,7 @@
       <selection pane="topLeft" activeCell="J44" activeCellId="0" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07421875" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.09375" defaultRowHeight="14.65" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="5.55"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="127" width="57.93"/>
